--- a/103/103.xlsx
+++ b/103/103.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>No.</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Final Scores</t>
+  </si>
+  <si>
+    <t>session12</t>
+  </si>
+  <si>
+    <t>Classwork</t>
   </si>
 </sst>
 </file>
@@ -143,11 +149,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,13 +437,13 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -450,7 +456,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -471,7 +479,9 @@
       <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -492,7 +502,9 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -513,7 +525,9 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -534,7 +548,9 @@
       <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -555,7 +571,9 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -576,7 +594,9 @@
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -644,15 +664,15 @@
         <v>2</v>
       </c>
       <c r="B11" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -664,7 +684,9 @@
       <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E13" s="11" t="s">
         <v>5</v>
       </c>
@@ -677,108 +699,162 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <f t="shared" ref="B14:B22" si="0">B2</f>
+        <f>B2+C2</f>
         <v>10</v>
       </c>
       <c r="C14" s="6">
         <f>(B14*40)/B11</f>
-        <v>40</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7">
+        <f>C14+D14+E14</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <f t="shared" si="0"/>
+        <f>B3+C3</f>
         <v>0</v>
       </c>
       <c r="C15" s="6">
         <f>(B15*40)/B11</f>
         <v>0</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <f>C15+D15+E15</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>3</v>
       </c>
       <c r="B16" s="10">
-        <f t="shared" si="0"/>
+        <f>B4+C4</f>
         <v>0</v>
       </c>
       <c r="C16" s="6">
         <f>(B16*40)/B11</f>
         <v>0</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="D16" s="5">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45</v>
+      </c>
+      <c r="F16" s="7">
+        <f>C16+D16+E16</f>
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>4</v>
       </c>
       <c r="B17" s="10">
-        <f t="shared" si="0"/>
+        <f>B5+C5</f>
         <v>12</v>
       </c>
       <c r="C17" s="6">
         <f>(B17*40)/B11</f>
-        <v>48</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7">
+        <f>C17+D17+E17</f>
+        <v>104</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>5</v>
       </c>
       <c r="B18" s="10">
-        <f t="shared" si="0"/>
+        <f>B6+C6</f>
         <v>3</v>
       </c>
       <c r="C18" s="6">
         <f>(B18*40)/B11</f>
-        <v>12</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>60</v>
+      </c>
+      <c r="F18" s="7">
+        <f>C18+D18+E18</f>
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>6</v>
       </c>
       <c r="B19" s="10">
-        <f t="shared" si="0"/>
+        <f>B7+C7</f>
         <v>0</v>
       </c>
       <c r="C19" s="6">
         <f>(B19*40)/B11</f>
         <v>0</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="D19" s="5">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <f>C19+D19+E19</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/103/103.xlsx
+++ b/103/103.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -699,12 +699,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <f>B2+C2</f>
-        <v>10</v>
+        <f t="shared" ref="B14:B19" si="0">B2+C2</f>
+        <v>20</v>
       </c>
       <c r="C14" s="6">
         <f>(B14*40)/B11</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5">
         <v>10</v>
@@ -713,8 +713,8 @@
         <v>70</v>
       </c>
       <c r="F14" s="7">
-        <f>C14+D14+E14</f>
-        <v>100</v>
+        <f t="shared" ref="F14:F19" si="1">C14+D14+E14</f>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -722,12 +722,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <f>B3+C3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C15" s="6">
         <f>(B15*40)/B11</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -736,8 +736,8 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f>C15+D15+E15</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -745,12 +745,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10">
-        <f>B4+C4</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C16" s="6">
         <f>(B16*40)/B11</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5">
         <v>10</v>
@@ -759,8 +759,8 @@
         <v>45</v>
       </c>
       <c r="F16" s="7">
-        <f>C16+D16+E16</f>
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,12 +768,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10">
-        <f>B5+C5</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="C17" s="6">
         <f>(B17*40)/B11</f>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5">
         <v>10</v>
@@ -782,8 +782,8 @@
         <v>70</v>
       </c>
       <c r="F17" s="7">
-        <f>C17+D17+E17</f>
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,12 +791,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="10">
-        <f>B6+C6</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="C18" s="6">
         <f>(B18*40)/B11</f>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5">
         <v>10</v>
@@ -805,8 +805,8 @@
         <v>60</v>
       </c>
       <c r="F18" s="7">
-        <f>C18+D18+E18</f>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -814,12 +814,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10">
-        <f>B7+C7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C19" s="6">
         <f>(B19*40)/B11</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5">
         <v>8</v>
@@ -828,8 +828,8 @@
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <f>C19+D19+E19</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
